--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N2">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O2">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P2">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q2">
-        <v>7740.217840528711</v>
+        <v>3671.694079296845</v>
       </c>
       <c r="R2">
-        <v>69661.96056475841</v>
+        <v>33045.24671367161</v>
       </c>
       <c r="S2">
-        <v>0.003802472965160555</v>
+        <v>0.002942117195587381</v>
       </c>
       <c r="T2">
-        <v>0.00400528532797428</v>
+        <v>0.002975760035160879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.067574</v>
       </c>
       <c r="O3">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P3">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q3">
-        <v>10.58965663468511</v>
+        <v>9.050173196547334</v>
       </c>
       <c r="R3">
-        <v>95.306909712166</v>
+        <v>81.45155876892601</v>
       </c>
       <c r="S3">
-        <v>5.202293254962541E-06</v>
+        <v>7.251876003162309E-06</v>
       </c>
       <c r="T3">
-        <v>5.479767781870666E-06</v>
+        <v>7.33480053837362E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N4">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O4">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P4">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q4">
-        <v>1741.956891709574</v>
+        <v>723.9274192672864</v>
       </c>
       <c r="R4">
-        <v>15677.61202538616</v>
+        <v>6515.346773405578</v>
       </c>
       <c r="S4">
-        <v>0.0008557567918202569</v>
+        <v>0.000580080818985705</v>
       </c>
       <c r="T4">
-        <v>0.0009014002608292815</v>
+        <v>0.0005867139898063878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N5">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O5">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P5">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q5">
-        <v>1539.556071816782</v>
+        <v>161.8143976886965</v>
       </c>
       <c r="R5">
-        <v>9237.336430900692</v>
+        <v>970.886386132179</v>
       </c>
       <c r="S5">
-        <v>0.0007563250107483042</v>
+        <v>0.0001296613801835857</v>
       </c>
       <c r="T5">
-        <v>0.0005311100603012027</v>
+        <v>8.742936409485516E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N6">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O6">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P6">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q6">
-        <v>991.638846835309</v>
+        <v>1845.077340957578</v>
       </c>
       <c r="R6">
-        <v>8924.749621517782</v>
+        <v>16605.69606861821</v>
       </c>
       <c r="S6">
-        <v>0.0004871542357051655</v>
+        <v>0.001478454809900588</v>
       </c>
       <c r="T6">
-        <v>0.0005131375635298006</v>
+        <v>0.001495360804692621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N7">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O7">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P7">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q7">
-        <v>1268459.546883179</v>
+        <v>704068.500918817</v>
       </c>
       <c r="R7">
-        <v>11416135.92194861</v>
+        <v>6336616.508269354</v>
       </c>
       <c r="S7">
-        <v>0.623145657369978</v>
+        <v>0.5641679286694217</v>
       </c>
       <c r="T7">
-        <v>0.6563823547262158</v>
+        <v>0.5706191370526923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.067574</v>
       </c>
       <c r="O8">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P8">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q8">
         <v>1735.422869644143</v>
@@ -948,10 +948,10 @@
         <v>15618.80582679728</v>
       </c>
       <c r="S8">
-        <v>0.0008525468767029496</v>
+        <v>0.001390589018618193</v>
       </c>
       <c r="T8">
-        <v>0.0008980191385856284</v>
+        <v>0.001406490276167078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N9">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O9">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P9">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q9">
-        <v>285470.2406408016</v>
+        <v>138817.2548828349</v>
       </c>
       <c r="R9">
-        <v>2569232.165767214</v>
+        <v>1249355.293945515</v>
       </c>
       <c r="S9">
-        <v>0.1402406101170376</v>
+        <v>0.1112338402422784</v>
       </c>
       <c r="T9">
-        <v>0.1477206184592071</v>
+        <v>0.1125057889763491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N10">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O10">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P10">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q10">
-        <v>252300.986547501</v>
+        <v>31028.84334785863</v>
       </c>
       <c r="R10">
-        <v>1513805.919285006</v>
+        <v>186173.0600871518</v>
       </c>
       <c r="S10">
-        <v>0.1239458242902215</v>
+        <v>0.02486331693254921</v>
       </c>
       <c r="T10">
-        <v>0.08703781215397208</v>
+        <v>0.01676508445015619</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N11">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O11">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P11">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q11">
-        <v>162508.8322116983</v>
+        <v>353804.2139327844</v>
       </c>
       <c r="R11">
-        <v>1462579.489905285</v>
+        <v>3184237.92539506</v>
       </c>
       <c r="S11">
-        <v>0.07983437337502455</v>
+        <v>0.283502230633078</v>
       </c>
       <c r="T11">
-        <v>0.08409249645605435</v>
+        <v>0.2867440525694109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N12">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O12">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P12">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q12">
-        <v>766.2574047348209</v>
+        <v>339.6089345643367</v>
       </c>
       <c r="R12">
-        <v>6896.316642613388</v>
+        <v>3056.48041107903</v>
       </c>
       <c r="S12">
-        <v>0.0003764329539411544</v>
+        <v>0.0002721275968471186</v>
       </c>
       <c r="T12">
-        <v>0.0003965107447707684</v>
+        <v>0.0002752393508921241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.067574</v>
       </c>
       <c r="O13">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P13">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q13">
-        <v>1.048342950690444</v>
+        <v>0.8370849015533335</v>
       </c>
       <c r="R13">
-        <v>9.435086556214001</v>
+        <v>7.533764113980001</v>
       </c>
       <c r="S13">
-        <v>5.15010793022431E-07</v>
+        <v>6.707535622080679E-07</v>
       </c>
       <c r="T13">
-        <v>5.424799050357071E-07</v>
+        <v>6.784235675092039E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N14">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O14">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P14">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q14">
-        <v>172.4482946735951</v>
+        <v>66.95879728802333</v>
       </c>
       <c r="R14">
-        <v>1552.034652062356</v>
+        <v>602.62917559221</v>
       </c>
       <c r="S14">
-        <v>8.471725110253427E-05</v>
+        <v>5.365387873890355E-05</v>
       </c>
       <c r="T14">
-        <v>8.923581205605393E-05</v>
+        <v>5.426740590825497E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N15">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O15">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P15">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q15">
-        <v>152.4112453085017</v>
+        <v>14.966828392945</v>
       </c>
       <c r="R15">
-        <v>914.4674718510101</v>
+        <v>89.80097035767</v>
       </c>
       <c r="S15">
-        <v>7.487381515769387E-05</v>
+        <v>1.199287365104278E-05</v>
       </c>
       <c r="T15">
-        <v>5.257823808317455E-05</v>
+        <v>8.086674038915957E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H16">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I16">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J16">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N16">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O16">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P16">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q16">
-        <v>98.16915038638643</v>
+        <v>170.6582129171833</v>
       </c>
       <c r="R16">
-        <v>883.522353477478</v>
+        <v>1535.92391625465</v>
       </c>
       <c r="S16">
-        <v>4.822674865847409E-05</v>
+        <v>0.0001367479021803506</v>
       </c>
       <c r="T16">
-        <v>5.079901700485425E-05</v>
+        <v>0.0001383116018664018</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N17">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O17">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P17">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q17">
-        <v>32670.00183538166</v>
+        <v>6255.285566830527</v>
       </c>
       <c r="R17">
-        <v>196020.01101229</v>
+        <v>37531.71340098316</v>
       </c>
       <c r="S17">
-        <v>0.01604952228867746</v>
+        <v>0.005012341124292712</v>
       </c>
       <c r="T17">
-        <v>0.01127037005177353</v>
+        <v>0.003379771189408332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.067574</v>
       </c>
       <c r="O18">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P18">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q18">
-        <v>44.69694636754466</v>
+        <v>15.41833729909233</v>
       </c>
       <c r="R18">
-        <v>268.1816782052679</v>
+        <v>92.510023794554</v>
       </c>
       <c r="S18">
-        <v>2.195790011204781E-05</v>
+        <v>1.23546663516458E-05</v>
       </c>
       <c r="T18">
-        <v>1.541937855665927E-05</v>
+        <v>8.330627216825185E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N19">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O19">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P19">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q19">
-        <v>7352.471987457677</v>
+        <v>1233.319726365314</v>
       </c>
       <c r="R19">
-        <v>44114.83192474606</v>
+        <v>7399.918358191882</v>
       </c>
       <c r="S19">
-        <v>0.003611988258653249</v>
+        <v>0.0009882553110991774</v>
       </c>
       <c r="T19">
-        <v>0.002536427163717016</v>
+        <v>0.0006663706131342134</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N20">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O20">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P20">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q20">
-        <v>6498.176243640654</v>
+        <v>275.6752726418102</v>
       </c>
       <c r="R20">
-        <v>25992.70497456262</v>
+        <v>1102.701090567241</v>
       </c>
       <c r="S20">
-        <v>0.003192305436148338</v>
+        <v>0.0002208977497910268</v>
       </c>
       <c r="T20">
-        <v>0.001494477029141317</v>
+        <v>9.92994201093596E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N21">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O21">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P21">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q21">
-        <v>4185.520823007271</v>
+        <v>3143.367996167116</v>
       </c>
       <c r="R21">
-        <v>25113.12493804363</v>
+        <v>18860.20797700269</v>
       </c>
       <c r="S21">
-        <v>0.00205618628603282</v>
+        <v>0.002518771126856353</v>
       </c>
       <c r="T21">
-        <v>0.001443904679662672</v>
+        <v>0.001698382028709969</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N22">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O22">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P22">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q22">
-        <v>730.333639516823</v>
+        <v>340.6969820267462</v>
       </c>
       <c r="R22">
-        <v>6573.002755651408</v>
+        <v>3066.272838240716</v>
       </c>
       <c r="S22">
-        <v>0.0003587849821576004</v>
+        <v>0.0002729994459390188</v>
       </c>
       <c r="T22">
-        <v>0.0003779214837554206</v>
+        <v>0.0002761211694982146</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.067574</v>
       </c>
       <c r="O23">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P23">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q23">
-        <v>0.9991944194060001</v>
+        <v>0.8397667747617779</v>
       </c>
       <c r="R23">
-        <v>8.992749774654001</v>
+        <v>7.557900972856</v>
       </c>
       <c r="S23">
-        <v>4.908659995118543E-07</v>
+        <v>6.729025389780662E-07</v>
       </c>
       <c r="T23">
-        <v>5.170473015482034E-07</v>
+        <v>6.805971176309466E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N24">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O24">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P24">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q24">
-        <v>164.363554465124</v>
+        <v>67.17332153064578</v>
       </c>
       <c r="R24">
-        <v>1479.271990186116</v>
+        <v>604.5598937758119</v>
       </c>
       <c r="S24">
-        <v>8.074552747583101E-05</v>
+        <v>5.382577635604128E-05</v>
       </c>
       <c r="T24">
-        <v>8.505224875013267E-05</v>
+        <v>5.444126915883691E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N25">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O25">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P25">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q25">
-        <v>145.265884285935</v>
+        <v>15.01477948608733</v>
       </c>
       <c r="R25">
-        <v>871.5953057156102</v>
+        <v>90.08867691652399</v>
       </c>
       <c r="S25">
-        <v>7.136357259418924E-05</v>
+        <v>1.203129671479331E-05</v>
       </c>
       <c r="T25">
-        <v>5.011325925386116E-05</v>
+        <v>8.112582324216704E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H26">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I26">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J26">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N26">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O26">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P26">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q26">
-        <v>93.566773315262</v>
+        <v>171.2049718996644</v>
       </c>
       <c r="R26">
-        <v>842.100959837358</v>
+        <v>1540.84474709698</v>
       </c>
       <c r="S26">
-        <v>4.596577684230747E-05</v>
+        <v>0.0001371860184747526</v>
       </c>
       <c r="T26">
-        <v>4.841745181682321E-05</v>
+        <v>0.0001387547279803411</v>
       </c>
     </row>
   </sheetData>
